--- a/Income/MXIM_inc.xlsx
+++ b/Income/MXIM_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.6623</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.6602</v>
+        <v>0.6605</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.6528</v>
+        <v>0.6531</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.647</v>
+        <v>0.6474</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.6415</v>
+        <v>0.6418</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.64</v>
@@ -3505,16 +3505,16 @@
         <v>0.3817</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.3752</v>
+        <v>0.3738</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.3652</v>
+        <v>0.3637</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.3557</v>
+        <v>0.3542</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.348</v>
+        <v>0.3465</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.3497</v>
